--- a/input_files/case_files/BTES_price_taker_wind_solar.xlsx
+++ b/input_files/case_files/BTES_price_taker_wind_solar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awongel/Projects/clab_borehole_th_storage/input_files/case_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{304A134A-6081-2141-805E-5A30C417A465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8D911-0E2A-944D-ACB6-E0C7A6F9C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,9 +320,6 @@
     <t>power_out_average_store</t>
   </si>
   <si>
-    <t>btes_base_case_wind_solar_orca_price_taker</t>
-  </si>
-  <si>
     <t>btes_output_price_taker_base_wind_solar</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>-1*electricity_cost_base_case_wind_solar.csv</t>
+  </si>
+  <si>
+    <t>btes_base_case_orca_wind_solar_price_taker</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1504,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>88</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s">
         <v>89</v>
@@ -1847,7 +1847,7 @@
         <v>93</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s">
         <v>89</v>

--- a/input_files/case_files/BTES_price_taker_wind_solar.xlsx
+++ b/input_files/case_files/BTES_price_taker_wind_solar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awongel/Projects/clab_borehole_th_storage/input_files/case_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/m_/v6c97p3x1mg6bmvchddj43dc0000gn/T/fz3temp-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8D911-0E2A-944D-ACB6-E0C7A6F9C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8414A6E0-89B4-9948-AB91-2DA52D46CC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -287,12 +287,6 @@
     <t>BTES_discharger</t>
   </si>
   <si>
-    <t>2016-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-01-01 0:00:00</t>
-  </si>
-  <si>
     <t>p_set</t>
   </si>
   <si>
@@ -320,16 +314,28 @@
     <t>power_out_average_store</t>
   </si>
   <si>
-    <t>btes_output_price_taker_base_wind_solar</t>
+    <t>2019-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2019-12-31 23:00:00</t>
+  </si>
+  <si>
+    <t>db_marginal_cost</t>
+  </si>
+  <si>
+    <t>db_capital_cost</t>
   </si>
   <si>
     <t>electricity_cost_base_case_wind_solar.csv</t>
   </si>
   <si>
+    <t>btes_base_case_orca_wind_solar_price_taker</t>
+  </si>
+  <si>
+    <t>btes_output_wind_solar_price_taker_base</t>
+  </si>
+  <si>
     <t>-1*electricity_cost_base_case_wind_solar.csv</t>
-  </si>
-  <si>
-    <t>btes_base_case_orca_wind_solar_price_taker</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1518,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1520,7 +1526,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" t="s">
@@ -1532,7 +1538,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -1550,8 +1556,8 @@
         <v>61</v>
       </c>
       <c r="B33" s="11">
-        <f>(B31-B30)*24/B32</f>
-        <v>35064</v>
+        <f>((B31-B30)*24+1)/B32</f>
+        <v>8760.0000000000582</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -1563,7 +1569,7 @@
       </c>
       <c r="B34" s="11">
         <f>B33*B32</f>
-        <v>35064</v>
+        <v>8760.0000000000582</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1687,7 +1693,7 @@
         <v>67</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>14</v>
@@ -1713,16 +1719,16 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>97</v>
+      </c>
+      <c r="K50" t="s">
         <v>87</v>
-      </c>
-      <c r="D50" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -1736,22 +1742,22 @@
         <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>
@@ -1774,16 +1780,16 @@
         <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L52" t="b">
         <v>1</v>
@@ -1812,19 +1818,19 @@
         <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M53" t="s">
         <v>72</v>
@@ -1838,19 +1844,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
         <v>91</v>
       </c>
-      <c r="E54" t="s">
-        <v>93</v>
-      </c>
       <c r="J54" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="U54" s="5"/>
@@ -1860,10 +1866,10 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L55" t="b">
         <v>1</v>
@@ -1879,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G56">
         <v>1</v>
